--- a/public/data/p1/d4t4_x1_l.xlsx
+++ b/public/data/p1/d4t4_x1_l.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\dump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\www\sertifikat-rpl\public\data\p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F7585-E601-4F63-9E2F-27DAB60D2FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38A361-8959-4826-9318-ECCE2D0FDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="293">
   <si>
     <t>No</t>
   </si>
@@ -887,13 +887,25 @@
   </si>
   <si>
     <t>06.2023.1.07682</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>REGIO ANTÓNIO DE JESUS GOMES</t>
+  </si>
+  <si>
+    <t>01/Sert/RPL/P.PBO.X/68/ITATS/II/2025</t>
+  </si>
+  <si>
+    <t>06.2018.1.06973</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +917,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -928,11 +946,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1245,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4045,7 +4064,49 @@
         <v>24</v>
       </c>
     </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2025</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/public/data/p1/d4t4_x1_l.xlsx
+++ b/public/data/p1/d4t4_x1_l.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important\www\sertifikat-rpl\public\data\p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC38A361-8959-4826-9318-ECCE2D0FDA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B94A440-A8C9-4B28-98B0-543AF2C084B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="297">
   <si>
     <t>No</t>
   </si>
@@ -899,6 +899,18 @@
   </si>
   <si>
     <t>06.2018.1.06973</t>
+  </si>
+  <si>
+    <t>06.2022.1.07588</t>
+  </si>
+  <si>
+    <t>RIZAL ALI</t>
+  </si>
+  <si>
+    <t>01/Sert/RPL/P.PBO.X/69/ITATS/II/2025</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
@@ -946,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -960,6 +972,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4105,6 +4122,62 @@
         <v>24</v>
       </c>
     </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2025</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
